--- a/app/files/class-list-import-template.xlsx
+++ b/app/files/class-list-import-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28712"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/msteams_84b494/Shared Documents/Future vaccinations/Future vaccinations/Design &amp; analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{2EDB62F4-6A9F-4679-834A-3D7970039639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC56AE2F-600A-4A6C-B6A8-927123CB66E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A9D0C6E-8831-4E9E-AE26-A27B82C11B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="880" windowWidth="27360" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,30 +36,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+  <si>
+    <t>CHILD_LAST_NAME</t>
+  </si>
+  <si>
+    <t>CHILD_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>CHILD_DATE_OF_BIRTH</t>
+  </si>
+  <si>
+    <t>CHILD_POSTCODE</t>
+  </si>
+  <si>
+    <t>CHILD_ADDRESS_LINE_1</t>
+  </si>
+  <si>
+    <t>PARENT_1_NAME</t>
+  </si>
+  <si>
+    <t>PARENT_1_RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>PARENT_1_EMAIL</t>
+  </si>
+  <si>
+    <t>PARENT_1_PHONE</t>
+  </si>
   <si>
     <t>CHILD_REGISTRATION</t>
   </si>
   <si>
-    <t>CHILD_LAST_NAME</t>
-  </si>
-  <si>
-    <t>CHILD_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>CHILD_DATE_OF_BIRTH</t>
+    <t>CHILD_PREFERRED_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>CHILD_PREFERRED_LAST_NAME</t>
   </si>
   <si>
     <t>CHILD_YEAR_GROUP</t>
   </si>
   <si>
-    <t>CHILD_POSTCODE</t>
-  </si>
-  <si>
-    <t>PARENT_1_EMAIL</t>
-  </si>
-  <si>
-    <t>PARENT_1_PHONE</t>
+    <t>CHILD_NHS_NUMBER</t>
+  </si>
+  <si>
+    <t>CHILD_GENDER</t>
+  </si>
+  <si>
+    <t>CHILD_ADDRESS_LINE_2</t>
+  </si>
+  <si>
+    <t>CHILD_TOWN</t>
+  </si>
+  <si>
+    <t>PARENT_2_NAME</t>
+  </si>
+  <si>
+    <t>PARENT_2_RELATIONSHIP</t>
   </si>
   <si>
     <t>PARENT_2_EMAIL</t>
@@ -68,25 +101,142 @@
     <t>PARENT_2_PHONE</t>
   </si>
   <si>
-    <t>Optional: Free text </t>
-  </si>
-  <si>
-    <t>Required: Free text </t>
-  </si>
-  <si>
-    <t>Required: DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>Optional: Numeric. When specified, a child's cohort year group will be taken from this value rather than calculated from the date of birth.</t>
-  </si>
-  <si>
-    <t>Optional: valid postcode</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>: Free text </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>: DD/MM/YYYY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>: valid postcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>: Free text</t>
+    </r>
+  </si>
+  <si>
+    <t>Optional: Free text</t>
+  </si>
+  <si>
+    <t>Optional: Mum, Dad or Guradian</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>: Email address </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>: Phone number, (mobile preferred)</t>
+    </r>
+  </si>
+  <si>
+    <t>Optional: Free text, child's form group</t>
+  </si>
+  <si>
+    <t>Optional: Numeric. If present, and when the child’s date of birth would place them in a different year, this value can be used to override the cohort the child will be placed in.</t>
+  </si>
+  <si>
+    <t>Optional: Numeric, must be 10 digits</t>
+  </si>
+  <si>
+    <t>Optional: Female, Male, Not specified or Not known</t>
+  </si>
+  <si>
+    <t>Optional: Mum, Dad or Guardian</t>
   </si>
   <si>
     <t>Optional: Email address </t>
-  </si>
-  <si>
-    <t>Optional: Phone number, (mobile preferred)</t>
   </si>
   <si>
     <t>Optional: Phone number (mobile preferred) </t>
@@ -96,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +285,28 @@
       <name val="Helvetica"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -206,15 +378,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -233,6 +401,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,89 +750,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C9546C-A2D2-48D3-A8E0-DAEF3ECE39BD}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="24.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="23.42578125" style="2" customWidth="1"/>
+    <col min="13" max="17" width="31.5703125" style="2" customWidth="1"/>
+    <col min="18" max="19" width="24.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="26" style="9" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -658,34 +910,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocType xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MigrationWizIdPermissionLevels xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
-    <MigrationWizIdDocumentLibraryPermissions xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
-    <MigrationWizIdSecurityGroups xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="80d05917-893e-4a06-bb39-47099b578ffd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MigrationWizId xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
-    <MigrationWizIdPermissions xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
-    <TaxCatchAll xmlns="754dda3c-967d-4b24-9bc2-1cc61ceab4bc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDE5462C73D2BC4498C7AF3E5E39BA62" ma:contentTypeVersion="55" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdfcab40565e92f5d919ffbdffa6c15b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="80d05917-893e-4a06-bb39-47099b578ffd" xmlns:ns3="754dda3c-967d-4b24-9bc2-1cc61ceab4bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da7f0a503997aad593060802265a0e90" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -977,14 +1201,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocType xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MigrationWizIdPermissionLevels xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
+    <MigrationWizIdDocumentLibraryPermissions xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
+    <MigrationWizIdSecurityGroups xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="80d05917-893e-4a06-bb39-47099b578ffd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MigrationWizId xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
+    <MigrationWizIdPermissions xmlns="80d05917-893e-4a06-bb39-47099b578ffd" xsi:nil="true"/>
+    <TaxCatchAll xmlns="754dda3c-967d-4b24-9bc2-1cc61ceab4bc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9C5003-FBBA-4869-9A5A-77A53BE546C5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C876B08D-714B-4BF4-B883-950097757B90}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA4DC00-880E-449F-B2E3-25A12598E9D3}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9C5003-FBBA-4869-9A5A-77A53BE546C5}"/>
 </file>